--- a/biology/Botanique/Corryocactus/Corryocactus.xlsx
+++ b/biology/Botanique/Corryocactus/Corryocactus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Corryocactus est un genre de plantes de la famille des Cactaceae. Le genre était autrefois placé dans la tribu des Notocacteae.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les genres suivants ont été mis en synonymie avec ce genre:
 Corryocereus Fric &amp; Kreuz.  (orth. var.)
@@ -544,9 +558,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (21 février 2019)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (21 février 2019) :
 Corryocactus apiciflorus (Vaupel) Hutchison
 Corryocactus aureus (Meyen) Hutchison ex Buxbaum
 Corryocactus brachypetalus (Vaupel) Britton &amp; Rose
@@ -559,7 +575,7 @@
 Corryocactus pulquiensis Cárdenas
 Corryocactus quadrangularis (Rauh &amp; Backeberg) F. Ritter
 Corryocactus squarrosus (Vaupel) Hutchison
-Selon Catalogue of Life                                   (21 février 2019)[3] et ITIS      (21 février 2019)[4] :
+Selon Catalogue of Life                                   (21 février 2019) et ITIS      (21 février 2019) :
 Corryocactus apiciflorus (Vaupel) Hutchison
 Corryocactus aureus (F.A.C. Weber) Hutchison
 Corryocactus ayacuchoensis Rauh &amp; Backeb.
@@ -572,10 +588,10 @@
 Corryocactus serpens F. Ritter
 Corryocactus squarrosus (Vaupel) Hutchison
 Corryocactus tarijensis Cárdenas
-Selon GRIN            (21 février 2019)[5] :
+Selon GRIN            (21 février 2019) :
 Corryocactus brevistylus (K. Schum.) Britton &amp; Rose
 Corryocactus pulquiensis Cárdenas
-Selon The Plant List            (21 février 2019)[6] :
+Selon The Plant List            (21 février 2019) :
 Corryocactus acervatus F.Ritter
 Corryocactus apiciflorus (Vaupel) Hutchison
 Corryocactus aureus (Meyen) Hutchison
@@ -611,7 +627,7 @@
 Corryocactus squarrosus (Vaupel) Hutchison
 Corryocactus tarijensis Cárdenas
 Corryocactus tenuiculus (Backeb.) Hutchison
-Selon Tropicos                                           (21 février 2019)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (21 février 2019) (Attention liste brute contenant possiblement des synonymes) :
 Corryocactus acervatus F. Ritter
 Corryocactus apiciflorus (Vaupel) Hutchison
 Corryocactus aureus (Meyen) Hutchison
